--- a/results/comparisons/pre-processing-impact/pp-4Fold.xlsx
+++ b/results/comparisons/pre-processing-impact/pp-4Fold.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27426"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22200" tabRatio="990"/>
+    <workbookView xWindow="560" yWindow="5080" windowWidth="38400" windowHeight="22200" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Avg" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
   <si>
     <t>Ranking: 101 datasets</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>Rank with best ordered like with p11</t>
+  </si>
+  <si>
+    <t>Accuracy with best ordered like with p11</t>
   </si>
 </sst>
 </file>
@@ -350,8 +356,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -386,30 +398,1658 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+  <cellStyles count="25">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rank with p11</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Avg!$A$9:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>RotationForest J48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Svm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bagging PART</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MultiboostAB, PART</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RotationForest RandomTree</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bagging NBTree</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Bagging J48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Logistic Model Tree</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MultiboostAB J48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>AdaboostM1, J48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MultiboostAB NBTree</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Bagging RandomTree</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RandomComittee RandomTree</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Bagging JRip</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MultiboostAB, RandomTree</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Bagging RepTree</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MultiboostAB, RepTree</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>MultiboostAB JRip</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Multillayer Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Decorate</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Random Subspaces of RepTree</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Classification ViaRegression, M5P</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Alternating Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Smo</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>PART</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Bagging Decision Table</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>NBTree</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>MultiboostAB, Decision Table</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>OrdinalClassClassifier J48</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>JRip</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>IBk</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Ridor</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Rep Tree</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Dagging SMO</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>DTNB</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>RBF Network</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>IB1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Random Tree</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>MultiboostAB, Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Decision Table</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Bagging Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Bagging LWL</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>LWL</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>LogitBoost Decision Stump</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>AdaboostM1, Decision Stumps</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Bagging Decision Stump</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>MultiboostAB DecisionStump</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>VFI</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Bagging Hyper Pipes</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Conjunctive Rule</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Decision Stump</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Hyper Pipes</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Raced Incremental Logit Boost, Decision Stumps</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Classification via Clustering: FarthestFirst</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Classification via Clustering: KMeans</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>NNge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Avg!$B$9:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Rank with best pi</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Avg!$M$9:$M$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2097197000"/>
+        <c:axId val="-2098884120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2097197000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2098884120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2098884120"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="36.0"/>
+          <c:min val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2097197000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Avg accuracy with p11</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Avg!$A$9:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>RotationForest J48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Svm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bagging PART</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MultiboostAB, PART</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RotationForest RandomTree</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bagging NBTree</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Bagging J48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Logistic Model Tree</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MultiboostAB J48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>AdaboostM1, J48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MultiboostAB NBTree</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Bagging RandomTree</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RandomComittee RandomTree</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Bagging JRip</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MultiboostAB, RandomTree</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Bagging RepTree</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MultiboostAB, RepTree</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>MultiboostAB JRip</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Multillayer Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Decorate</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Random Subspaces of RepTree</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Classification ViaRegression, M5P</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Alternating Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Smo</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>PART</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Bagging Decision Table</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>NBTree</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>MultiboostAB, Decision Table</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>OrdinalClassClassifier J48</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>JRip</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>IBk</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Ridor</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Rep Tree</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Dagging SMO</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>DTNB</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>RBF Network</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>IB1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Random Tree</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>MultiboostAB, Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Decision Table</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Bagging Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Bagging LWL</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>LWL</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>LogitBoost Decision Stump</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>AdaboostM1, Decision Stumps</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Bagging Decision Stump</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>MultiboostAB DecisionStump</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>VFI</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Bagging Hyper Pipes</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Conjunctive Rule</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Decision Stump</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Hyper Pipes</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Raced Incremental Logit Boost, Decision Stumps</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Classification via Clustering: FarthestFirst</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Classification via Clustering: KMeans</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>NNge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Avg!$C$9:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0.827210839722903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82679657633827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.824681860856369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.815985476619916</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.815775107125554</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.814987255053013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.814263186849277</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.813187881675805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.812764793675772</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.812186388479028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.810455868486273</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.809772852898227</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.807448770864864</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.806657711572723</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.806462123800526</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.805756160935058</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.805748022838073</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.80050151990888</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.800262278478145</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.799138278225056</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.797364309831168</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.796793528308076</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.790667860098233</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.79034373164247</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.789957458159408</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.78867018378622</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7881355083761</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.785286872751091</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.782797453092729</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.782264386705015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.781653450569979</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.776251606158537</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.775739891719779</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.773341102220156</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.773284958232429</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.773033962125048</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.772197260748987</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.77074813897634</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.769554307494202</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.769287754311254</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76700266773325</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.75656555505765</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.752273634039756</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.747192298365226</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.745849398060318</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.743271226351636</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.734829360672938</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.714535290223367</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.709726997981876</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.6895053241086</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.679484479260935</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.674224249576308</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.665990986298312</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.664199563313787</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.648397917882892</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.647679792856362</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.628294577596362</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.601610737833358</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.564430293105202</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.545392191634005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.477304034768424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Avg accuracy with best pi</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Avg!$A$9:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>RotationForest J48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Svm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bagging PART</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MultiboostAB, PART</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RotationForest RandomTree</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bagging NBTree</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Bagging J48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Logistic Model Tree</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MultiboostAB J48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>AdaboostM1, J48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MultiboostAB NBTree</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Bagging RandomTree</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RandomComittee RandomTree</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Bagging JRip</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MultiboostAB, RandomTree</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Bagging RepTree</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MultiboostAB, RepTree</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>MultiboostAB JRip</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Multillayer Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Decorate</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Random Subspaces of RepTree</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Classification ViaRegression, M5P</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Alternating Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Simple Logistic</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Smo</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>PART</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Bagging Decision Table</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>NBTree</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>MultiboostAB, Decision Table</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>OrdinalClassClassifier J48</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>JRip</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>IBk</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Ridor</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Rep Tree</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Dagging SMO</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>DTNB</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>RBF Network</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>IB1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Random Tree</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>MultiboostAB, Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Decision Table</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Bagging Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Bagging LWL</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>LWL</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>LogitBoost Decision Stump</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>AdaboostM1, Decision Stumps</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Bagging Decision Stump</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>MultiboostAB DecisionStump</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>VFI</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Bagging Hyper Pipes</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Conjunctive Rule</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Decision Stump</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Hyper Pipes</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Raced Incremental Logit Boost, Decision Stumps</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Classification via Clustering: FarthestFirst</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Classification via Clustering: KMeans</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>NNge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Avg!$N$9:$N$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0.85990504246413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.849589250104309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.859076324442808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.847454422326277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.847498814636413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85833744129191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.853165751420287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.844347454334743</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.847525861920994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.842624657183956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.845031390857362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.848354699963307</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.844820699902284</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.847538681134503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84083214666118</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.844912800545023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.838774040550326</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.834891719988844</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.831646280927489</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.833478768228898</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.830472233337843</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.833289440682384</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.819233399172636</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.830711111284422</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.82336962505683</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.816161668125096</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.811931895026756</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.824833045983307</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.822652936772379</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.836617665209364</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.820961358577116</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81437420024236</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.812617903137818</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.821755563023321</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.830213237998082</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.815843340153546</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.810804781728316</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79982217385761</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.825124283951007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.807764503508579</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.819685498224723</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.811362627584817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.82387688472568</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.790039687426922</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.821100520082765</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.819956527500457</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.786749406336311</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.770357084862922</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.745509066662797</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.722789838177714</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.709694390439096</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.706818371822051</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.781012649245083</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.708492265035955</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.678331454025508</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.682656363346812</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.664452967700739</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.616914922723882</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.640010472129744</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.631709567009761</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.741748857895176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2085522616"/>
+        <c:axId val="-2096937048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2085522616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2096937048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2096937048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2085522616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2349500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -734,10 +2374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AM67" sqref="AM67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -750,9 +2390,11 @@
     <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13">
+    <row r="1" spans="1:14" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,11 +2404,11 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="13">
+    <row r="3" spans="1:14" ht="13">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -776,11 +2418,11 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="13">
+    <row r="5" spans="1:14" ht="13">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -790,11 +2432,11 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -826,8 +2468,14 @@
       <c r="L7" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -840,7 +2488,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -874,8 +2522,16 @@
         <f>INDEX(A$9:I$73,MATCH(F9,A$9:A$73,0),3)</f>
         <v>0.82721083972290299</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="3">
+        <f>INDEX(A$9:I$73,MATCH(A9,F$9:F$73,0),7)</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <f>INDEX(A$9:J$73,MATCH(A9,F$9:F$73,0),8)</f>
+        <v>0.85990504246413002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -902,15 +2558,23 @@
         <v>0.13225845672629999</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" ref="K10:K73" si="0">IF(L10&gt;0,H10-L10,"?")</f>
+        <f t="shared" ref="K10:K48" si="0">IF(L10&gt;0,H10-L10,"?")</f>
         <v>3.439446358643905E-2</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" ref="L10:L73" si="1">INDEX(A$9:I$73,MATCH(F10,A$9:A$73,0),3)</f>
+        <f t="shared" ref="L10:L48" si="1">INDEX(A$9:I$73,MATCH(F10,A$9:A$73,0),3)</f>
         <v>0.82468186085636896</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="3">
+        <f t="shared" ref="M10:M69" si="2">INDEX(A$9:I$73,MATCH(A10,F$9:F$73,0),7)</f>
+        <v>2</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" ref="N10:N69" si="3">INDEX(A$9:J$73,MATCH(A10,F$9:F$73,0),8)</f>
+        <v>0.84958925010430897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -944,8 +2608,16 @@
         <f t="shared" si="1"/>
         <v>0.81498725505301295</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.85907632444280801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -979,8 +2651,16 @@
         <f t="shared" si="1"/>
         <v>0.81426318684927701</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84745442232627699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1014,8 +2694,16 @@
         <f t="shared" si="1"/>
         <v>0.82679657633826997</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84749881463641297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1049,8 +2737,16 @@
         <f t="shared" si="1"/>
         <v>0.80977285289822698</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.85833744129191003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1084,8 +2780,16 @@
         <f t="shared" si="1"/>
         <v>0.80665771157272304</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.85316575142028706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1119,8 +2823,16 @@
         <f t="shared" si="1"/>
         <v>0.81276479367577203</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84434745433474301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +2866,16 @@
         <f t="shared" si="1"/>
         <v>0.81577510712555401</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84752586192099399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1189,8 +2909,16 @@
         <f t="shared" si="1"/>
         <v>0.81598547661991605</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84262465718395596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1224,8 +2952,16 @@
         <f t="shared" si="1"/>
         <v>0.81045586848627305</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84503139085736201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1259,8 +2995,16 @@
         <f t="shared" si="1"/>
         <v>0.80575616093505797</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84835469996330704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1294,8 +3038,16 @@
         <f t="shared" si="1"/>
         <v>0.807448770864864</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84482069990228403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -1329,8 +3081,16 @@
         <f t="shared" si="1"/>
         <v>0.81318788167580502</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84753868113450304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +3124,16 @@
         <f t="shared" si="1"/>
         <v>0.81218638847902802</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84083214666118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1399,8 +3167,16 @@
         <f t="shared" si="1"/>
         <v>0.80646212380052595</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84491280054502305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -1434,8 +3210,16 @@
         <f t="shared" si="1"/>
         <v>0.80574802283807301</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="3"/>
+        <v>0.83877404055032601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
@@ -1469,8 +3253,16 @@
         <f t="shared" si="1"/>
         <v>0.78226438670501497</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.83489171998884404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1504,8 +3296,16 @@
         <f t="shared" si="1"/>
         <v>0.80050151990887997</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="3">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="3"/>
+        <v>0.83164628092748905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -1539,8 +3339,16 @@
         <f t="shared" si="1"/>
         <v>0.79913827822505601</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.83347876822889799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -1574,8 +3382,16 @@
         <f t="shared" si="1"/>
         <v>0.79679352830807604</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="3"/>
+        <v>0.83047223333784304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1609,8 +3425,16 @@
         <f t="shared" si="1"/>
         <v>0.80026227847814502</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="3"/>
+        <v>0.83328944068238398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -1644,8 +3468,16 @@
         <f t="shared" si="1"/>
         <v>0.79034373164246996</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="3">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="3"/>
+        <v>0.81923339917263605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -1679,8 +3511,16 @@
         <f t="shared" si="1"/>
         <v>0.79736430983116802</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="3">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="3"/>
+        <v>0.83071111128442199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -1714,8 +3554,16 @@
         <f t="shared" si="1"/>
         <v>0.77328495823242904</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="3"/>
+        <v>0.82336962505682998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
@@ -1749,8 +3597,16 @@
         <f t="shared" si="1"/>
         <v>0.76955430749420195</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.81616166812509605</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
@@ -1784,8 +3640,16 @@
         <f t="shared" si="1"/>
         <v>0.78528687275109099</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="3"/>
+        <v>0.811931895026756</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
@@ -1819,8 +3683,16 @@
         <f t="shared" si="1"/>
         <v>0.752273634039756</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="3"/>
+        <v>0.82483304598330698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
@@ -1854,8 +3726,16 @@
         <f t="shared" si="1"/>
         <v>0.78995745815940799</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="3"/>
+        <v>0.82265293677237905</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="3" t="s">
         <v>27</v>
       </c>
@@ -1889,8 +3769,16 @@
         <f t="shared" si="1"/>
         <v>0.78279745309272897</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="3"/>
+        <v>0.83661766520936398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
@@ -1924,8 +3812,16 @@
         <f t="shared" si="1"/>
         <v>0.77334110222015595</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N39" s="3">
+        <f t="shared" si="3"/>
+        <v>0.82096135857711605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -1959,8 +3855,16 @@
         <f t="shared" si="1"/>
         <v>0.74584939806031803</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="3">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" si="3"/>
+        <v>0.81437420024235996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -1994,8 +3898,16 @@
         <f t="shared" si="1"/>
         <v>0.78165345056997904</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N41" s="3">
+        <f t="shared" si="3"/>
+        <v>0.81261790313781801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -2029,8 +3941,16 @@
         <f t="shared" si="1"/>
         <v>0.74327122635163601</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="3"/>
+        <v>0.82175556302332098</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="3" t="s">
         <v>35</v>
       </c>
@@ -2064,8 +3984,16 @@
         <f t="shared" si="1"/>
         <v>0.76700266773324999</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="3">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N43" s="3">
+        <f t="shared" si="3"/>
+        <v>0.830213237998082</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -2099,8 +4027,16 @@
         <f t="shared" si="1"/>
         <v>0.79066786009823298</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="3"/>
+        <v>0.81584334015354598</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -2134,8 +4070,16 @@
         <f t="shared" si="1"/>
         <v>0.78867018378622</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" si="3"/>
+        <v>0.81080478172831605</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -2169,8 +4113,16 @@
         <f t="shared" si="1"/>
         <v>0.77303396212504805</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" s="3">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N46" s="3">
+        <f t="shared" si="3"/>
+        <v>0.79982217385761001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="3" t="s">
         <v>37</v>
       </c>
@@ -2204,8 +4156,16 @@
         <f t="shared" si="1"/>
         <v>0.77625160615853706</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="3"/>
+        <v>0.82512428395100701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -2239,8 +4199,16 @@
         <f t="shared" si="1"/>
         <v>0.77573989171977897</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" s="3">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N48" s="3">
+        <f t="shared" si="3"/>
+        <v>0.80776450350857898</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -2267,15 +4235,23 @@
         <v>0.143772905462732</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" ref="K49:K69" si="2">IF(L49&gt;0,H49-L49,"?")</f>
+        <f t="shared" ref="K49:K69" si="4">IF(L49&gt;0,H49-L49,"?")</f>
         <v>2.3796386650655976E-2</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" ref="L49:L69" si="3">INDEX(A$9:I$73,MATCH(F49,A$9:A$73,0),3)</f>
+        <f t="shared" ref="L49:L69" si="5">INDEX(A$9:I$73,MATCH(F49,A$9:A$73,0),3)</f>
         <v>0.78813550837610002</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" s="3">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N49" s="3">
+        <f t="shared" si="3"/>
+        <v>0.81968549822472303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="3" t="s">
         <v>53</v>
       </c>
@@ -2302,15 +4278,23 @@
         <v>0.14779957185672299</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.4797072527167034E-2</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.75656555505765</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N50" s="3">
+        <f t="shared" si="3"/>
+        <v>0.81136262758481703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="3" t="s">
         <v>40</v>
       </c>
@@ -2337,15 +4321,23 @@
         <v>0.146989835274701</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.8607520979329069E-2</v>
       </c>
       <c r="L51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.77219726074898698</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N51" s="3">
+        <f t="shared" si="3"/>
+        <v>0.82387688472567999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="3" t="s">
         <v>54</v>
       </c>
@@ -2372,15 +4364,23 @@
         <v>0.14745955212199699</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.8476749197325022E-2</v>
       </c>
       <c r="L52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76928775431125396</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N52" s="3">
+        <f t="shared" si="3"/>
+        <v>0.79003968742692199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="3" t="s">
         <v>45</v>
       </c>
@@ -2407,15 +4407,23 @@
         <v>0.15178320699007899</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.9074034881270028E-2</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.77074813897633998</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" si="3"/>
+        <v>0.82110052008276502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="3" t="s">
         <v>47</v>
       </c>
@@ -2442,15 +4450,23 @@
         <v>0.158267157276054</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.284738906169594E-2</v>
       </c>
       <c r="L54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.74719229836522605</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54" s="3">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N54" s="3">
+        <f t="shared" si="3"/>
+        <v>0.819956527500457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
@@ -2477,15 +4493,23 @@
         <v>0.14365582440508001</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1920045663372938E-2</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.73482936067293803</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N55" s="3">
+        <f t="shared" si="3"/>
+        <v>0.78674940633631096</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
@@ -2512,15 +4536,23 @@
         <v>0.17380003443106801</v>
       </c>
       <c r="K56" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11502166294677096</v>
       </c>
       <c r="L56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.66599098629831199</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N56" s="3">
+        <f t="shared" si="3"/>
+        <v>0.77035708486292198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -2547,15 +4579,23 @@
         <v>0.15289658951829399</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5821794639554945E-2</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.71453529022336704</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N57" s="3">
+        <f t="shared" si="3"/>
+        <v>0.74550906666279704</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
@@ -2582,15 +4622,23 @@
         <v>0.15458382968392401</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5782068680921042E-2</v>
       </c>
       <c r="L58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.709726997981876</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N58" s="3">
+        <f t="shared" si="3"/>
+        <v>0.72278983817771403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
@@ -2617,15 +4665,23 @@
         <v>0.182827194805736</v>
       </c>
       <c r="K59" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26444482312675199</v>
       </c>
       <c r="L59" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.47730403476842398</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" s="3">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N59" s="3">
+        <f t="shared" si="3"/>
+        <v>0.70969439043909599</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
@@ -2652,15 +4708,23 @@
         <v>0.21752494595737901</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.3284514069114035E-2</v>
       </c>
       <c r="L60" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.68950532410859999</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60" s="3">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N60" s="3">
+        <f t="shared" si="3"/>
+        <v>0.70681837182205098</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="3" t="s">
         <v>57</v>
       </c>
@@ -2687,15 +4751,23 @@
         <v>0.18628408025854801</v>
       </c>
       <c r="K61" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0209911178160964E-2</v>
       </c>
       <c r="L61" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.67948447926093503</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N61" s="3">
+        <f t="shared" si="3"/>
+        <v>0.78101264924508296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -2722,15 +4794,23 @@
         <v>0.19076124009096199</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.4292701722167926E-2</v>
       </c>
       <c r="L62" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.66419956331378704</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62" s="3">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N62" s="3">
+        <f t="shared" si="3"/>
+        <v>0.70849226503595497</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
@@ -2757,15 +4837,23 @@
         <v>0.212390897609438</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2594122245742985E-2</v>
       </c>
       <c r="L63" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.674224249576308</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N63" s="3">
+        <f t="shared" si="3"/>
+        <v>0.67833145402550798</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -2792,15 +4880,23 @@
         <v>0.201202076690602</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.4976570490449999E-2</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.64767979285636201</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64" s="3">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N64" s="3">
+        <f t="shared" si="3"/>
+        <v>0.68265636334681201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
@@ -2827,15 +4923,23 @@
         <v>0.20086921387007201</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.9933536142615957E-2</v>
       </c>
       <c r="L65" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.64839791788289203</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65" s="3">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N65" s="3">
+        <f t="shared" si="3"/>
+        <v>0.66445296770073903</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
@@ -2862,15 +4966,23 @@
         <v>0.21571801613682301</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6158390104377047E-2</v>
       </c>
       <c r="L66" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.62829457759636198</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66" s="3">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N66" s="3">
+        <f t="shared" si="3"/>
+        <v>0.61691492272388204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
@@ -2897,15 +5009,23 @@
         <v>0.16497088218800801</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.558017902454206E-2</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.56443029310520199</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N67" s="3">
+        <f t="shared" si="3"/>
+        <v>0.64001047212974405</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
@@ -2932,15 +5052,23 @@
         <v>0.17481828996648399</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.6317375375756011E-2</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.54539219163400499</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68" s="3">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N68" s="3">
+        <f t="shared" si="3"/>
+        <v>0.631709567009761</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="3" t="s">
         <v>62</v>
       </c>
@@ -2967,15 +5095,23 @@
         <v>0.231686513764012</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5304184890524097E-2</v>
       </c>
       <c r="L69" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.60161073783335794</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N69" s="3">
+        <f t="shared" si="3"/>
+        <v>0.74174885789517597</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2988,7 +5124,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:14">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3007,7 +5143,7 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:14">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3026,7 +5162,7 @@
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:14">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3045,16 +5181,17 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:14">
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:14">
       <c r="L75" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/results/comparisons/pre-processing-impact/pp-4Fold.xlsx
+++ b/results/comparisons/pre-processing-impact/pp-4Fold.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="5080" windowWidth="38400" windowHeight="22200" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22200" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Avg" sheetId="1" r:id="rId1"/>
@@ -399,30 +399,30 @@
     </xf>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,7 +433,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1057,11 +1057,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2097197000"/>
-        <c:axId val="-2098884120"/>
+        <c:axId val="-2113294056"/>
+        <c:axId val="2113160648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2097197000"/>
+        <c:axId val="-2113294056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098884120"/>
+        <c:crossAx val="2113160648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1078,7 +1078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098884120"/>
+        <c:axId val="2113160648"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="36.0"/>
@@ -1091,15 +1091,34 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097197000"/>
+        <c:crossAx val="-2113294056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0198915009041591"/>
+          <c:y val="0.905763800552968"/>
+          <c:w val="0.572332730560579"/>
+          <c:h val="0.0536259369447978"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1116,7 +1135,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1139,6 +1158,13 @@
           <c:tx>
             <c:v>Avg accuracy with p11</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1533,6 +1559,13 @@
           <c:tx>
             <c:v>Avg accuracy with best pi</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1931,11 +1964,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2085522616"/>
-        <c:axId val="-2096937048"/>
+        <c:axId val="2118417624"/>
+        <c:axId val="2104328632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2085522616"/>
+        <c:axId val="2118417624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,7 +1977,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2096937048"/>
+        <c:crossAx val="2104328632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1952,7 +1985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2096937048"/>
+        <c:axId val="2104328632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -1965,15 +1998,34 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085522616"/>
+        <c:crossAx val="2118417624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0291606299212598"/>
+          <c:y val="0.926751406074241"/>
+          <c:w val="0.439492070533437"/>
+          <c:h val="0.0675055912128631"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1992,15 +2044,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2021,14 +2073,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2349500</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -2376,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AM67" sqref="AM67"/>
+    <sheetView tabSelected="1" topLeftCell="M47" workbookViewId="0">
+      <selection activeCell="AK69" sqref="AK69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -5190,7 +5242,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
